--- a/Producción Fiscalizada Crudo 2020 Agosto.xlsx
+++ b/Producción Fiscalizada Crudo 2020 Agosto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielSan\Documents\GitHub\Prueba-datos-ANH-Hackaton-SPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83EE79B-33E9-4F1C-9ADE-BC6BFE1B4DC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDECEAB-B3BD-4B37-82B1-92EE16FD9AF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2069,9 +2069,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
@@ -2420,8 +2418,8 @@
   </sheetPr>
   <dimension ref="A1:M415"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G402" sqref="G402"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19426,12 +19424,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19567,20 +19565,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51378AB8-E3DF-4CD4-B63F-5C596585BC4A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19F92F18-D1B8-4F11-8D92-6AE894BCDC35}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19604,9 +19600,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19F92F18-D1B8-4F11-8D92-6AE894BCDC35}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51378AB8-E3DF-4CD4-B63F-5C596585BC4A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Producción Fiscalizada Crudo 2020 Agosto.xlsx
+++ b/Producción Fiscalizada Crudo 2020 Agosto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielSan\Documents\GitHub\Prueba-datos-ANH-Hackaton-SPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDECEAB-B3BD-4B37-82B1-92EE16FD9AF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C8DBA7-1582-484B-B5AE-8315257D93F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2069,7 +2069,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
@@ -19424,12 +19424,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19565,18 +19565,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19F92F18-D1B8-4F11-8D92-6AE894BCDC35}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51378AB8-E3DF-4CD4-B63F-5C596585BC4A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19600,11 +19602,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51378AB8-E3DF-4CD4-B63F-5C596585BC4A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19F92F18-D1B8-4F11-8D92-6AE894BCDC35}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>